--- a/data/excel/dnataInsurance.xlsx
+++ b/data/excel/dnataInsurance.xlsx
@@ -9,14 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="14835" windowHeight="10125"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="10125" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="43" r:id="rId1"/>
-    <sheet name="Sheet5" sheetId="46" r:id="rId2"/>
-    <sheet name="Sheet6" sheetId="47" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="48" r:id="rId2"/>
+    <sheet name="Sheet5" sheetId="46" r:id="rId3"/>
+    <sheet name="Sheet6" sheetId="47" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="49" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -136,8 +138,76 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Shubham Natkar</author>
+  </authors>
+  <commentList>
+    <comment ref="AK1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Shubham Natkar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+No of Preferred airline</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Shubham Natkar</author>
+  </authors>
+  <commentList>
+    <comment ref="AK1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Shubham Natkar:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+No of Preferred airline</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="130">
   <si>
     <t>Source</t>
   </si>
@@ -364,12 +434,6 @@
     <t>25-December-2022</t>
   </si>
   <si>
-    <t>14-Jan-2023</t>
-  </si>
-  <si>
-    <t>16-Jan-2023</t>
-  </si>
-  <si>
     <t>21-Jan-2023</t>
   </si>
   <si>
@@ -442,28 +506,97 @@
     <t>21-December-2022</t>
   </si>
   <si>
-    <t>23-December-2022</t>
-  </si>
-  <si>
-    <t>24-February-2023</t>
-  </si>
-  <si>
-    <t>11-Jan-2023</t>
-  </si>
-  <si>
-    <t>12-Jan-2023</t>
-  </si>
-  <si>
-    <t>18-Jan-2023</t>
-  </si>
-  <si>
-    <t>20-Jan-2023</t>
-  </si>
-  <si>
-    <t>22-Jan-2023</t>
-  </si>
-  <si>
-    <t>24-Jan-2023</t>
+    <t>21-Feb-2023</t>
+  </si>
+  <si>
+    <t>23-Feb-2023</t>
+  </si>
+  <si>
+    <t>11-Mar-2023</t>
+  </si>
+  <si>
+    <t>12-Mar-2023</t>
+  </si>
+  <si>
+    <t>14-Mar-2023</t>
+  </si>
+  <si>
+    <t>16-Mar-2023</t>
+  </si>
+  <si>
+    <t>18-Mar-2023</t>
+  </si>
+  <si>
+    <t>20-Mar-2023</t>
+  </si>
+  <si>
+    <t>22-Mar-2023</t>
+  </si>
+  <si>
+    <t>24-Mar-2023</t>
+  </si>
+  <si>
+    <t>21-Mar-2023</t>
+  </si>
+  <si>
+    <t>23-Mar-2023</t>
+  </si>
+  <si>
+    <t>//aceuat.dnata.com/backoffice/loginggn.aspx</t>
+  </si>
+  <si>
+    <t>Shekhar</t>
+  </si>
+  <si>
+    <t>Shekhar@123</t>
+  </si>
+  <si>
+    <t>15-February-2024</t>
+  </si>
+  <si>
+    <t>16-February-2024</t>
+  </si>
+  <si>
+    <t>17-February-2024</t>
+  </si>
+  <si>
+    <t>18-February-2024</t>
+  </si>
+  <si>
+    <t>20-February-2024</t>
+  </si>
+  <si>
+    <t>21-February-2024</t>
+  </si>
+  <si>
+    <t>22-February-2024</t>
+  </si>
+  <si>
+    <t>23-February-2024</t>
+  </si>
+  <si>
+    <t>24-February-2024</t>
+  </si>
+  <si>
+    <t>32-February-2024</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>11-February-2024</t>
+  </si>
+  <si>
+    <t>13-February-2024</t>
+  </si>
+  <si>
+    <t>Dependent</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>14-May-2019</t>
   </si>
 </sst>
 </file>
@@ -908,8 +1041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="Z26" sqref="Z26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1099,16 +1232,16 @@
         <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="2">
-        <v>91269126</v>
+      <c r="G2" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>23</v>
@@ -1132,10 +1265,10 @@
         <v>40</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>41</v>
@@ -1150,7 +1283,7 @@
         <v>29</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="W2" s="1" t="s">
         <v>12</v>
@@ -1171,10 +1304,10 @@
         <v>12</v>
       </c>
       <c r="AC2" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AD2" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AE2" s="1" t="s">
         <v>12</v>
@@ -1227,16 +1360,16 @@
         <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="2">
-        <v>91269126</v>
+      <c r="G3" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>23</v>
@@ -1260,10 +1393,10 @@
         <v>40</v>
       </c>
       <c r="P3" s="6" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>41</v>
@@ -1278,7 +1411,7 @@
         <v>29</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="W3" s="1" t="s">
         <v>12</v>
@@ -1299,10 +1432,10 @@
         <v>12</v>
       </c>
       <c r="AC3" s="6" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="AD3" s="6" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="AE3" s="1" t="s">
         <v>12</v>
@@ -1355,16 +1488,16 @@
         <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="2">
-        <v>91269126</v>
+      <c r="G4" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>23</v>
@@ -1388,10 +1521,10 @@
         <v>40</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="R4" s="1" t="s">
         <v>41</v>
@@ -1406,7 +1539,7 @@
         <v>29</v>
       </c>
       <c r="V4" s="1" t="s">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="W4" s="1" t="s">
         <v>12</v>
@@ -1483,16 +1616,16 @@
         <v>22</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="2">
-        <v>91269126</v>
+      <c r="G5" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>23</v>
@@ -1516,10 +1649,10 @@
         <v>40</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="R5" s="1" t="s">
         <v>41</v>
@@ -1534,7 +1667,7 @@
         <v>29</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="W5" s="1" t="s">
         <v>12</v>
@@ -1599,28 +1732,28 @@
     </row>
     <row r="6" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="2">
-        <v>91269126</v>
+      <c r="G6" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>23</v>
@@ -1644,10 +1777,10 @@
         <v>40</v>
       </c>
       <c r="P6" s="6" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>41</v>
@@ -1662,7 +1795,7 @@
         <v>29</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="W6" s="1" t="s">
         <v>12</v>
@@ -1683,10 +1816,10 @@
         <v>12</v>
       </c>
       <c r="AC6" s="6" t="s">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="AD6" s="6" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="AE6" s="1" t="s">
         <v>12</v>
@@ -1727,28 +1860,28 @@
     </row>
     <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="2">
-        <v>91269126</v>
+      <c r="G7" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>23</v>
@@ -1775,7 +1908,7 @@
         <v>73</v>
       </c>
       <c r="Q7" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="R7" s="1" t="s">
         <v>41</v>
@@ -1790,7 +1923,7 @@
         <v>29</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="W7" s="1" t="s">
         <v>12</v>
@@ -1811,10 +1944,10 @@
         <v>12</v>
       </c>
       <c r="AC7" s="6" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AD7" s="6" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AE7" s="1" t="s">
         <v>12</v>
@@ -1855,28 +1988,28 @@
     </row>
     <row r="8" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="2">
-        <v>91269126</v>
+      <c r="G8" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>23</v>
@@ -1900,10 +2033,10 @@
         <v>42</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="R8" s="1" t="s">
         <v>41</v>
@@ -1918,7 +2051,7 @@
         <v>29</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="W8" s="1" t="s">
         <v>12</v>
@@ -1939,10 +2072,10 @@
         <v>12</v>
       </c>
       <c r="AC8" s="6" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AD8" s="6" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="AE8" s="1" t="s">
         <v>12</v>
@@ -1983,28 +2116,28 @@
     </row>
     <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="2">
-        <v>91269126</v>
+      <c r="G9" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>23</v>
@@ -2028,10 +2161,10 @@
         <v>42</v>
       </c>
       <c r="P9" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q9" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="R9" s="1" t="s">
         <v>41</v>
@@ -2046,7 +2179,7 @@
         <v>29</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="W9" s="1" t="s">
         <v>12</v>
@@ -2067,10 +2200,10 @@
         <v>12</v>
       </c>
       <c r="AC9" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AD9" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AE9" s="1" t="s">
         <v>12</v>
@@ -2111,28 +2244,28 @@
     </row>
     <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="2">
-        <v>91269126</v>
+      <c r="G10" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>23</v>
@@ -2150,16 +2283,16 @@
         <v>42</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>40</v>
       </c>
       <c r="P10" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="Q10" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="R10" s="1" t="s">
         <v>41</v>
@@ -2174,7 +2307,7 @@
         <v>29</v>
       </c>
       <c r="V10" s="1" t="s">
-        <v>12</v>
+        <v>124</v>
       </c>
       <c r="W10" s="1" t="s">
         <v>12</v>
@@ -2195,10 +2328,10 @@
         <v>12</v>
       </c>
       <c r="AC10" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AD10" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AE10" s="1" t="s">
         <v>12</v>
@@ -2238,7 +2371,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="14">
+  <dataValidations count="13">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2:AG10 S2:S10">
       <formula1>"1,2,3,4,5,6,7,8,9"</formula1>
     </dataValidation>
@@ -2263,44 +2396,41 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK2:AK10">
       <formula1>"1,2,3,4,5,6"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E10">
-      <formula1>"//xchange-erp/backoffice/,//dnatauat.quadlabs.net/backoffice/loginggn.aspx"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F10">
-      <formula1>"ql,dt"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G10">
       <formula1>"Shekhar,91269126"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H10">
-      <formula1>"Shekhar123@,Shubham@321"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP2:AP10">
       <formula1>"Quote,Fulfilment"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM10">
       <formula1>"Add to Cart,Send Quote,Book Now"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H10">
+      <formula1>"Tiger@1234,Shubham@321,Shekhar@123"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E10">
+      <formula1>"//xchange-erp/backoffice/,//dnatauat.quadlabs.net/backoffice/loginggn.aspx,//aceuat.dnata.com/backoffice/loginggn.aspx"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" display="shubham.natkar@quadlabs.com"/>
-    <hyperlink ref="H2" r:id="rId2" display="Shekhar123@"/>
-    <hyperlink ref="G3" r:id="rId3" display="shubham.natkar@quadlabs.com"/>
-    <hyperlink ref="H3" r:id="rId4" display="Shekhar123@"/>
-    <hyperlink ref="G4" r:id="rId5" display="shubham.natkar@quadlabs.com"/>
-    <hyperlink ref="H4" r:id="rId6" display="Shekhar123@"/>
-    <hyperlink ref="G5" r:id="rId7" display="shubham.natkar@quadlabs.com"/>
-    <hyperlink ref="H5" r:id="rId8" display="Shekhar123@"/>
-    <hyperlink ref="G6" r:id="rId9" display="shubham.natkar@quadlabs.com"/>
-    <hyperlink ref="H6" r:id="rId10" display="Shekhar123@"/>
-    <hyperlink ref="G7" r:id="rId11" display="shubham.natkar@quadlabs.com"/>
-    <hyperlink ref="H7" r:id="rId12" display="Shekhar123@"/>
-    <hyperlink ref="G8" r:id="rId13" display="shubham.natkar@quadlabs.com"/>
-    <hyperlink ref="H8" r:id="rId14" display="Shekhar123@"/>
-    <hyperlink ref="G10" r:id="rId15" display="shubham.natkar@quadlabs.com"/>
-    <hyperlink ref="H10" r:id="rId16" display="Shekhar123@"/>
-    <hyperlink ref="G9" r:id="rId17" display="shubham.natkar@quadlabs.com"/>
-    <hyperlink ref="H9" r:id="rId18" display="Shekhar123@"/>
+    <hyperlink ref="H2" r:id="rId1" display="Shekhar123@"/>
+    <hyperlink ref="G2" r:id="rId2" display="shubham.natkar@quadlabs.com"/>
+    <hyperlink ref="H3" r:id="rId3" display="Shekhar123@"/>
+    <hyperlink ref="G3" r:id="rId4" display="shubham.natkar@quadlabs.com"/>
+    <hyperlink ref="H4" r:id="rId5" display="Shekhar123@"/>
+    <hyperlink ref="G4" r:id="rId6" display="shubham.natkar@quadlabs.com"/>
+    <hyperlink ref="H10" r:id="rId7" display="Shekhar123@"/>
+    <hyperlink ref="G10" r:id="rId8" display="shubham.natkar@quadlabs.com"/>
+    <hyperlink ref="H5" r:id="rId9" display="Shekhar123@"/>
+    <hyperlink ref="G5" r:id="rId10" display="shubham.natkar@quadlabs.com"/>
+    <hyperlink ref="H6" r:id="rId11" display="Shekhar123@"/>
+    <hyperlink ref="G6" r:id="rId12" display="shubham.natkar@quadlabs.com"/>
+    <hyperlink ref="H7" r:id="rId13" display="Shekhar123@"/>
+    <hyperlink ref="G7" r:id="rId14" display="shubham.natkar@quadlabs.com"/>
+    <hyperlink ref="H8" r:id="rId15" display="Shekhar123@"/>
+    <hyperlink ref="G8" r:id="rId16" display="shubham.natkar@quadlabs.com"/>
+    <hyperlink ref="H9" r:id="rId17" display="Shekhar123@"/>
+    <hyperlink ref="G9" r:id="rId18" display="shubham.natkar@quadlabs.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId19"/>
@@ -2311,8 +2441,757 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="W9" sqref="W9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="11" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="17.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF1" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH1" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI1" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ1" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK1" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP1" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S2" s="1">
+        <v>1</v>
+      </c>
+      <c r="T2" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD2" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S3" s="1">
+        <v>1</v>
+      </c>
+      <c r="T3" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="X3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC3" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD3" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK3" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S4" s="1">
+        <v>1</v>
+      </c>
+      <c r="T4" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="X4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC4" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD4" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK4" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S5" s="1">
+        <v>1</v>
+      </c>
+      <c r="T5" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="X5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC5" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD5" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK5" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5">
+      <formula1>"//xchange-erp/backoffice/,//dnatauat.quadlabs.net/backoffice/loginggn.aspx,//aceuat.dnata.com/backoffice/loginggn.aspx"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H5">
+      <formula1>"Tiger@1234,Shubham@321,Shekhar@123"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2:AM5">
+      <formula1>"Add to Cart,Send Quote,Book Now"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP2:AP5">
+      <formula1>"Quote,Fulfilment"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G5">
+      <formula1>"Shekhar,91269126"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK2:AK5">
+      <formula1>"1,2,3,4,5,6"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K5">
+      <formula1>"Individual,Dependent,MultiplePassengers,GuestUser"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J5">
+      <formula1>"BusinessTravel,Personal"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B5">
+      <formula1>"Positive,Negative"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI2:AI5 AE2:AE5 AB2:AB5 V2:W5">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2:AF5 R2:R5">
+      <formula1>"Individual,Family,Couple"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ2:AJ5 U2:U5">
+      <formula1>"FOP - Credit Card,FOP - Deposit Voucher,FOP - Gift Voucher,FOP - Cash"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2:AG5 S2:S5">
+      <formula1>"1,2,3,4,5,6,7,8,9"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" display="Shekhar123@"/>
+    <hyperlink ref="G2" r:id="rId2" display="shubham.natkar@quadlabs.com"/>
+    <hyperlink ref="H3" r:id="rId3" display="Shekhar123@"/>
+    <hyperlink ref="G3" r:id="rId4" display="shubham.natkar@quadlabs.com"/>
+    <hyperlink ref="H4" r:id="rId5" display="Shekhar123@"/>
+    <hyperlink ref="G4" r:id="rId6" display="shubham.natkar@quadlabs.com"/>
+    <hyperlink ref="H5" r:id="rId7" display="Shekhar123@"/>
+    <hyperlink ref="G5" r:id="rId8" display="shubham.natkar@quadlabs.com"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AP5"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2450,13 +3329,13 @@
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>22</v>
@@ -2495,10 +3374,10 @@
         <v>40</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="R2" s="1" t="s">
         <v>41</v>
@@ -2534,10 +3413,10 @@
         <v>12</v>
       </c>
       <c r="AC2" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AD2" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AE2" s="1" t="s">
         <v>12</v>
@@ -2578,13 +3457,13 @@
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>22</v>
@@ -2626,7 +3505,7 @@
         <v>73</v>
       </c>
       <c r="Q3" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>41</v>
@@ -2662,10 +3541,10 @@
         <v>12</v>
       </c>
       <c r="AC3" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AD3" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AE3" s="1" t="s">
         <v>12</v>
@@ -2706,13 +3585,13 @@
     </row>
     <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>22</v>
@@ -2790,10 +3669,10 @@
         <v>12</v>
       </c>
       <c r="AC4" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AD4" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AE4" s="1" t="s">
         <v>12</v>
@@ -2834,13 +3713,13 @@
     </row>
     <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>22</v>
@@ -2873,7 +3752,7 @@
         <v>42</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>40</v>
@@ -2918,10 +3797,10 @@
         <v>12</v>
       </c>
       <c r="AC5" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AD5" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AE5" s="1" t="s">
         <v>12</v>
@@ -3020,12 +3899,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP3"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3163,13 +4042,13 @@
     </row>
     <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>22</v>
@@ -3247,10 +4126,10 @@
         <v>12</v>
       </c>
       <c r="AC2" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AD2" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AE2" s="1" t="s">
         <v>12</v>
@@ -3291,13 +4170,13 @@
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>22</v>
@@ -3330,7 +4209,7 @@
         <v>42</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O3" s="7" t="s">
         <v>40</v>
@@ -3375,10 +4254,10 @@
         <v>12</v>
       </c>
       <c r="AC3" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AD3" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AE3" s="1" t="s">
         <v>12</v>
@@ -3471,4 +4350,366 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AP2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="50.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="11" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="17.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="W1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE1" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF1" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH1" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI1" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ1" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK1" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP1" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="S2" s="1">
+        <v>3</v>
+      </c>
+      <c r="T2" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="X2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC2" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD2" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="14">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG2 S2">
+      <formula1>"1,2,3,4,5,6,7,8,9"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ2 U2">
+      <formula1>"FOP - Credit Card,FOP - Deposit Voucher,FOP - Gift Voucher,FOP - Cash"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AF2 R2">
+      <formula1>"Individual,Family,Couple"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI2 V2:W2 AB2 AE2">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
+      <formula1>"Positive,Negative"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2">
+      <formula1>"BusinessTravel,Personal"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2">
+      <formula1>"Individual,Dependent,MultiplePassengers,GuestUser"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK2">
+      <formula1>"1,2,3,4,5,6"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2">
+      <formula1>"Shekhar,91269126"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AP2">
+      <formula1>"Quote,Fulfilment"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM2">
+      <formula1>"Add to Cart,Send Quote,Book Now"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
+      <formula1>"Tiger@1234,Shubham@321,Shekhar@123"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2">
+      <formula1>"//xchange-erp/backoffice/,//dnatauat.quadlabs.net/backoffice/loginggn.aspx,//aceuat.dnata.com/backoffice/loginggn.aspx"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
+      <formula1>"ql,dt"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" display="shubham.natkar@quadlabs.com"/>
+    <hyperlink ref="H2" r:id="rId2" display="Shekhar123@"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
 </file>